--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ereg</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.245218</v>
       </c>
       <c r="I2">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.1515914516522222</v>
+        <v>0.1120545175691111</v>
       </c>
       <c r="R2">
-        <v>1.36432306487</v>
+        <v>1.008490658122</v>
       </c>
       <c r="S2">
-        <v>0.01467610601281114</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="T2">
-        <v>0.01467610601281115</v>
+        <v>0.01103063309339269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.245218</v>
       </c>
       <c r="I3">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
         <v>7.594705884523778</v>
@@ -635,10 +635,10 @@
         <v>68.352352960714</v>
       </c>
       <c r="S3">
-        <v>0.7352704092649123</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="T3">
-        <v>0.7352704092649124</v>
+        <v>0.7476219244149904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.245218</v>
       </c>
       <c r="I4">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>1.420179365838889</v>
+        <v>2.429169069837333</v>
       </c>
       <c r="R4">
-        <v>12.78161429255</v>
+        <v>21.862521628536</v>
       </c>
       <c r="S4">
-        <v>0.1374926006914645</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="T4">
-        <v>0.1374926006914645</v>
+        <v>0.2391271080585153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>0.245218</v>
       </c>
       <c r="I5">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8887221751074579</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.01325288854933333</v>
+        <v>0.02255523337933333</v>
       </c>
       <c r="R5">
-        <v>0.119275996944</v>
+        <v>0.202997100414</v>
       </c>
       <c r="S5">
-        <v>0.001283059138269923</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="T5">
-        <v>0.001283059138269923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01023466666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.030704</v>
-      </c>
-      <c r="I6">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="J6">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.854571666666667</v>
-      </c>
-      <c r="N6">
-        <v>5.563715</v>
-      </c>
-      <c r="O6">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="P6">
-        <v>0.01651371646154392</v>
-      </c>
-      <c r="Q6">
-        <v>0.01898092281777778</v>
-      </c>
-      <c r="R6">
-        <v>0.17082830536</v>
-      </c>
-      <c r="S6">
-        <v>0.001837610448732774</v>
-      </c>
-      <c r="T6">
-        <v>0.001837610448732775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01023466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.030704</v>
-      </c>
-      <c r="I7">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="J7">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.91372433333333</v>
-      </c>
-      <c r="N7">
-        <v>278.741173</v>
-      </c>
-      <c r="O7">
-        <v>0.8273343794712995</v>
-      </c>
-      <c r="P7">
-        <v>0.8273343794712996</v>
-      </c>
-      <c r="Q7">
-        <v>0.9509409973102223</v>
-      </c>
-      <c r="R7">
-        <v>8.558468975792001</v>
-      </c>
-      <c r="S7">
-        <v>0.09206397020638725</v>
-      </c>
-      <c r="T7">
-        <v>0.09206397020638726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01023466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.030704</v>
-      </c>
-      <c r="I8">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="J8">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.37449166666667</v>
-      </c>
-      <c r="N8">
-        <v>52.123475</v>
-      </c>
-      <c r="O8">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="P8">
-        <v>0.1547081917640233</v>
-      </c>
-      <c r="Q8">
-        <v>0.1778221307111111</v>
-      </c>
-      <c r="R8">
-        <v>1.6003991764</v>
-      </c>
-      <c r="S8">
-        <v>0.01721559107255881</v>
-      </c>
-      <c r="T8">
-        <v>0.01721559107255881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01023466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.030704</v>
-      </c>
-      <c r="I9">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="J9">
-        <v>0.1112778248925421</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.162136</v>
-      </c>
-      <c r="N9">
-        <v>0.4864080000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.001443712303133186</v>
-      </c>
-      <c r="P9">
-        <v>0.001443712303133187</v>
-      </c>
-      <c r="Q9">
-        <v>0.001659407914666667</v>
-      </c>
-      <c r="R9">
-        <v>0.014934671232</v>
-      </c>
-      <c r="S9">
-        <v>0.0001606531648632634</v>
-      </c>
-      <c r="T9">
-        <v>0.0001606531648632634</v>
+        <v>0.002220334433101458</v>
       </c>
     </row>
   </sheetData>
